--- a/NoteBook/task and schedule plans and actual/TASK_claudia.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_claudia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\tsp\documentos\ciclo1\Claudia Vargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\tsp\NoteBook\task and schedule plans and actual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>TSPi Example Task Planning Template - Form TASK</t>
   </si>
@@ -207,13 +207,25 @@
   </si>
   <si>
     <t>Claudia Vargas</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>Generación acta de reunion-Semana4</t>
+  </si>
+  <si>
+    <t>Generación acta de reunion-Semana5</t>
+  </si>
+  <si>
+    <t>REQ1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +271,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -438,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -498,15 +516,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -516,12 +555,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -534,20 +567,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,207 +897,207 @@
     <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="28">
         <v>41719</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="33">
-        <v>1</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="24" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-    </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
       <c r="N13" s="1" t="s">
         <v>59</v>
       </c>
@@ -1084,8 +1105,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="4"/>
@@ -1109,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="9">
-        <f>ROUND(D14/D40*100,1)</f>
+        <f>ROUND(D14/D42*100,1)</f>
         <v>6.6</v>
       </c>
       <c r="J14" s="8">
@@ -1133,8 +1154,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
       <c r="B15" s="7"/>
       <c r="C15" s="5" t="s">
         <v>25</v>
@@ -1156,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="9">
-        <f>ROUND(D15/D40*100,1)</f>
+        <f>ROUND(D15/D42*100,1)</f>
         <v>3.3</v>
       </c>
       <c r="J15" s="9">
@@ -1180,8 +1201,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+    <row r="16" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
         <v>26</v>
@@ -1190,7 +1211,7 @@
         <v>0.5</v>
       </c>
       <c r="E16" s="9">
-        <f t="shared" ref="E16:E39" si="0">D16+E15</f>
+        <f t="shared" ref="E16:E40" si="0">D16+E15</f>
         <v>3.5</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -1203,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="9">
-        <f>ROUND(D16/D40*100,1)</f>
+        <f>ROUND(D16/D42*100,1)</f>
         <v>1.7</v>
       </c>
       <c r="J16" s="9">
@@ -1214,7 +1235,7 @@
         <v>0.5</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" ref="L16:L25" si="1">K16+L15</f>
+        <f t="shared" ref="L16:L29" si="1">K16+L15</f>
         <v>3.5</v>
       </c>
       <c r="M16" s="9">
@@ -1226,9 +1247,10 @@
       <c r="O16" s="20">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="Q16" s="38"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="7"/>
@@ -1252,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="9">
-        <f>ROUND(D17/D40*100,1)</f>
+        <f>ROUND(D17/D42*100,1)</f>
         <v>3.3</v>
       </c>
       <c r="J17" s="9">
@@ -1275,9 +1297,10 @@
       <c r="O17" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="Q17" s="38"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5" t="s">
         <v>28</v>
@@ -1299,7 +1322,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="9">
-        <f>ROUND(D18/D40*100,1)</f>
+        <f>ROUND(D18/D42*100,1)</f>
         <v>1.7</v>
       </c>
       <c r="J18" s="9">
@@ -1322,9 +1345,10 @@
       <c r="O18" s="20">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="Q18" s="38"/>
+    </row>
+    <row r="19" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5" t="s">
         <v>47</v>
@@ -1346,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="9">
-        <f>ROUND(D19/D40*100,1)</f>
+        <f>ROUND(D19/D42*100,1)</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="J19" s="9">
@@ -1369,9 +1393,10 @@
       <c r="O19" s="20">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="Q19" s="38"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="7"/>
@@ -1395,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="9">
-        <f>ROUND(D20/D40*100,1)</f>
+        <f>ROUND(D20/D42*100,1)</f>
         <v>1.7</v>
       </c>
       <c r="J20" s="9">
@@ -1418,9 +1443,10 @@
       <c r="O20" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="Q20" s="38"/>
+    </row>
+    <row r="21" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
       <c r="B21" s="7"/>
       <c r="C21" s="5" t="s">
         <v>30</v>
@@ -1442,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="9">
-        <f>ROUND(D21/D40*100,1)</f>
+        <f>ROUND(D21/D42*100,1)</f>
         <v>0.7</v>
       </c>
       <c r="J21" s="9">
@@ -1465,9 +1491,10 @@
       <c r="O21" s="20">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="Q21" s="38"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
       <c r="B22" s="7"/>
       <c r="C22" s="5" t="s">
         <v>48</v>
@@ -1489,7 +1516,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="9">
-        <f>ROUND(D22/D40*100,1)</f>
+        <f>ROUND(D22/D42*100,1)</f>
         <v>1.7</v>
       </c>
       <c r="J22" s="9">
@@ -1513,8 +1540,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+    <row r="23" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5" t="s">
         <v>31</v>
@@ -1536,7 +1563,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="9">
-        <f>ROUND(D23/D40*100,1)</f>
+        <f>ROUND(D23/D42*100,1)</f>
         <v>3.3</v>
       </c>
       <c r="J23" s="9">
@@ -1560,8 +1587,8 @@
         <v>2.1999999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5" t="s">
         <v>32</v>
@@ -1583,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="9">
-        <f>ROUND(D24/D40*100,1)</f>
+        <f>ROUND(D24/D42*100,1)</f>
         <v>0.7</v>
       </c>
       <c r="J24" s="9">
@@ -1607,8 +1634,8 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+    <row r="25" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5" t="s">
         <v>33</v>
@@ -1630,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="9">
-        <f>ROUND(D25/D40*100,1)</f>
+        <f>ROUND(D25/D42*100,1)</f>
         <v>10</v>
       </c>
       <c r="J25" s="9">
@@ -1654,8 +1681,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="B26" s="7"/>
       <c r="C26" s="5" t="s">
         <v>49</v>
@@ -1675,22 +1704,29 @@
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="9">
-        <f>ROUND(D26/D40*100,1)</f>
+        <f>ROUND(D26/D42*100,1)</f>
         <v>6.6</v>
       </c>
       <c r="J26" s="9">
         <v>47</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="K26" s="6">
+        <v>1</v>
+      </c>
+      <c r="L26" s="20">
+        <f t="shared" si="1"/>
+        <v>12.082138151703369</v>
+      </c>
+      <c r="M26" s="6">
+        <v>4</v>
+      </c>
       <c r="N26" s="19"/>
       <c r="O26" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
       <c r="B27" s="7"/>
       <c r="C27" s="5" t="s">
         <v>50</v>
@@ -1710,21 +1746,28 @@
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="9">
-        <f>ROUND(D27/D40*100,1)</f>
+        <f>ROUND(D27/D42*100,1)</f>
         <v>1.7</v>
       </c>
       <c r="J27" s="9">
         <v>48.3</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="K27" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="L27" s="20">
+        <f t="shared" si="1"/>
+        <v>12.482138151703369</v>
+      </c>
+      <c r="M27" s="6">
+        <v>4</v>
+      </c>
       <c r="O27" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="7"/>
@@ -1746,21 +1789,28 @@
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="9">
-        <f>ROUND(D28/D40*100,1)</f>
+        <f>ROUND(D28/D42*100,1)</f>
         <v>3.3</v>
       </c>
       <c r="J28" s="9">
         <v>49.599999999999994</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="K28" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="L28" s="20">
+        <f t="shared" si="1"/>
+        <v>14.982138151703369</v>
+      </c>
+      <c r="M28" s="6">
+        <v>4</v>
+      </c>
       <c r="O28" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
       <c r="B29" s="7"/>
       <c r="C29" s="5" t="s">
         <v>52</v>
@@ -1780,21 +1830,28 @@
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="9">
-        <f>ROUND(D29/D40*100,1)</f>
+        <f>ROUND(D29/D42*100,1)</f>
         <v>3.3</v>
       </c>
       <c r="J29" s="9">
         <v>54.599999999999994</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="K29" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="L29" s="20">
+        <f t="shared" si="1"/>
+        <v>16.18213815170337</v>
+      </c>
+      <c r="M29" s="6">
+        <v>5</v>
+      </c>
       <c r="O29" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
       <c r="B30" s="7"/>
       <c r="C30" s="5" t="s">
         <v>34</v>
@@ -1803,7 +1860,7 @@
         <v>0.5</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" si="0"/>
+        <f>D30+E29</f>
         <v>16.100000000000001</v>
       </c>
       <c r="F30" s="9" t="s">
@@ -1814,241 +1871,255 @@
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="9">
-        <f>ROUND(D30/D40*100,1)</f>
+        <f>ROUND(D30/D42*100,1)</f>
         <v>1.7</v>
       </c>
       <c r="J30" s="9">
         <v>56.599999999999994</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="K30" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="20">
+        <f>K30+L29</f>
+        <v>16.68213815170337</v>
+      </c>
+      <c r="M30" s="6">
+        <v>4</v>
+      </c>
       <c r="O30" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30"/>
       <c r="B31" s="7"/>
       <c r="C31" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9">
-        <f t="shared" si="0"/>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="F31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="20">
+        <f>D31+E30</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F31" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="20">
+        <v>1</v>
+      </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="9">
-        <f>ROUND(D31/D40*100,1)</f>
-        <v>3.3</v>
-      </c>
-      <c r="J31" s="9">
-        <v>63.499999999999986</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="O31" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="I31" s="20">
+        <f>ROUND(D31/D42*100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="20">
+        <v>56.599999999999994</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1</v>
+      </c>
+      <c r="L31" s="20">
+        <f>K31+L30</f>
+        <v>17.68213815170337</v>
+      </c>
+      <c r="M31" s="6">
+        <v>4</v>
+      </c>
+      <c r="O31" s="20"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
       <c r="B32" s="7"/>
       <c r="C32" s="5" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D32" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" si="0"/>
-        <v>22.1</v>
+        <f>D32+E30</f>
+        <v>17.100000000000001</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="9">
-        <v>646</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G32" s="9"/>
       <c r="H32" s="6"/>
       <c r="I32" s="9">
-        <f>ROUND(D32/D40*100,1)</f>
-        <v>16.600000000000001</v>
+        <f>ROUND(D32/D42*100,1)</f>
+        <v>3.3</v>
       </c>
       <c r="J32" s="9">
-        <v>81.099999999999994</v>
+        <v>63.499999999999986</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="O32" s="20">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="7"/>
       <c r="C33" s="5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D33" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" si="0"/>
-        <v>23.1</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+        <v>22.1</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="9">
+        <v>646</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9">
-        <f>ROUND(D33/D40*100,1)</f>
-        <v>3.3</v>
+        <f>ROUND(D33/D42*100,1)</f>
+        <v>16.600000000000001</v>
       </c>
       <c r="J33" s="9">
-        <v>82.399999999999991</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="O33" s="20">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="7"/>
       <c r="C34" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" si="0"/>
-        <v>23.6</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="9">
-        <v>0.7</v>
-      </c>
+        <v>23.1</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="6"/>
       <c r="I34" s="9">
-        <f>ROUND(D34/D40*100,1)</f>
-        <v>1.7</v>
+        <f>ROUND(D34/D42*100,1)</f>
+        <v>3.3</v>
       </c>
       <c r="J34" s="9">
-        <v>83.1</v>
+        <v>82.399999999999991</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="O34" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
-        <v>42</v>
-      </c>
+      <c r="A35" s="24"/>
       <c r="B35" s="7"/>
       <c r="C35" s="5" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D35" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E35" s="9">
         <f t="shared" si="0"/>
-        <v>24.6</v>
+        <v>23.6</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="9">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="9">
-        <f>ROUND(D35/D40*100,1)</f>
-        <v>3.3</v>
+        <f>ROUND(D35/D42*100,1)</f>
+        <v>1.7</v>
       </c>
       <c r="J35" s="9">
-        <v>86.399999999999991</v>
+        <v>83.1</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="O35" s="20">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D36" s="10">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>25.6</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+        <v>23.6</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="20">
+        <v>1</v>
+      </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="9">
-        <f>ROUND(D36/D40*100,1)</f>
-        <v>3.3</v>
-      </c>
-      <c r="J36" s="9">
-        <v>88.399999999999991</v>
+      <c r="I36" s="20">
+        <f>ROUND(D36/D42*100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="20">
+        <v>83.1</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-      <c r="O36" s="20">
-        <v>3</v>
-      </c>
+      <c r="O36" s="20"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+      <c r="A37" s="29" t="s">
+        <v>42</v>
+      </c>
       <c r="B37" s="7"/>
       <c r="C37" s="5" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D37" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="9">
-        <f t="shared" si="0"/>
-        <v>27.6</v>
+        <f>D37+E35</f>
+        <v>24.6</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="9">
-        <f>ROUND(D37/D40*100,1)</f>
-        <v>6.6</v>
+        <f>ROUND(D37/D42*100,1)</f>
+        <v>3.3</v>
       </c>
       <c r="J37" s="9">
-        <v>91.699999999999989</v>
+        <v>86.399999999999991</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
@@ -2058,98 +2129,178 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
-        <v>43</v>
-      </c>
+      <c r="A38" s="24"/>
       <c r="B38" s="7"/>
       <c r="C38" s="5" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D38" s="10">
         <v>1</v>
       </c>
       <c r="E38" s="9">
         <f t="shared" si="0"/>
-        <v>28.6</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="9">
-        <v>5</v>
-      </c>
+        <v>25.6</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
       <c r="H38" s="6"/>
       <c r="I38" s="9">
-        <f>ROUND(D38/D40*100,1)</f>
+        <f>ROUND(D38/D42*100,1)</f>
         <v>3.3</v>
       </c>
       <c r="J38" s="9">
-        <v>94.999999999999986</v>
+        <v>88.399999999999991</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="O38" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12" t="s">
-        <v>38</v>
+      <c r="A39" s="30"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D39" s="10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E39" s="9">
         <f t="shared" si="0"/>
+        <v>27.6</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="9">
+        <v>10</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="9">
+        <f>ROUND(D39/D42*100,1)</f>
+        <v>6.6</v>
+      </c>
+      <c r="J39" s="9">
+        <v>91.699999999999989</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="O39" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" si="0"/>
+        <v>28.6</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="9">
+        <v>5</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="9">
+        <f>ROUND(D40/D42*100,1)</f>
+        <v>3.3</v>
+      </c>
+      <c r="J40" s="9">
+        <v>94.999999999999986</v>
+      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="O40" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="30"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="E41" s="9">
+        <f>D41+E40</f>
         <v>30.1</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F41" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G41" s="13">
         <v>5</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="9">
-        <f>ROUND(D39/D40*100,1)</f>
+      <c r="H41" s="14"/>
+      <c r="I41" s="9">
+        <f>ROUND(D41/D42*100,1)</f>
         <v>5</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J41" s="9">
         <v>99.999999999999986</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="O39" s="20">
+      <c r="K41" s="6"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="O41" s="20">
         <v>7.5</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="17">
-        <f>SUM(D14:D39)</f>
+    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="17">
+        <f>SUM(D14:D41)</f>
         <v>30.1</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="9">
-        <f>SUM(I14:I39)</f>
+      <c r="E42" s="9"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="9">
+        <f>SUM(I14:I41)</f>
         <v>99.999999999999986</v>
       </c>
-      <c r="J40" s="18"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E8:E13"/>
@@ -2166,22 +2317,6 @@
     <mergeCell ref="I8:I13"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/NoteBook/task and schedule plans and actual/TASK_claudia.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_claudia.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>TSPi Example Task Planning Template - Form TASK</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>REQ1</t>
+  </si>
+  <si>
+    <t>IMP1</t>
   </si>
 </sst>
 </file>
@@ -495,9 +498,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -516,18 +516,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,36 +572,6 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="H34" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,12 +901,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -912,192 +915,192 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="38">
         <v>41719</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="E5" s="34">
+        <v>1</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="31" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="31" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
       <c r="N13" s="1" t="s">
         <v>59</v>
       </c>
@@ -1106,7 +1109,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="4"/>
@@ -1137,7 +1140,7 @@
         <f>I14</f>
         <v>6.6</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="19">
         <v>2</v>
       </c>
       <c r="L14" s="9">
@@ -1147,10 +1150,10 @@
       <c r="M14" s="9">
         <v>1</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="18">
         <v>10</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="19">
         <v>10</v>
       </c>
     </row>
@@ -1184,7 +1187,7 @@
         <f>SUM(I15+J14)</f>
         <v>9.8999999999999986</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="19">
         <v>1</v>
       </c>
       <c r="L15" s="9">
@@ -1194,15 +1197,15 @@
       <c r="M15" s="9">
         <v>1</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="18">
         <v>5</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
         <v>26</v>
@@ -1231,7 +1234,7 @@
         <f>SUM(I16+J15)</f>
         <v>11.599999999999998</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="19">
         <v>0.5</v>
       </c>
       <c r="L16" s="9">
@@ -1241,16 +1244,16 @@
       <c r="M16" s="9">
         <v>1</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="18">
         <v>2.5</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="19">
         <v>2.5</v>
       </c>
-      <c r="Q16" s="38"/>
+      <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="7"/>
@@ -1284,20 +1287,20 @@
         <f t="shared" ref="K17" si="2">(G17*N17)/O17</f>
         <v>1.4</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="19">
         <f t="shared" si="1"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="M17" s="9">
         <v>3</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="18">
         <v>7</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="19">
         <v>5</v>
       </c>
-      <c r="Q17" s="38"/>
+      <c r="Q17" s="20"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
@@ -1328,27 +1331,27 @@
       <c r="J18" s="9">
         <v>18.599999999999998</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="19">
         <f>(D18*N18)/O18</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="19">
         <f t="shared" si="1"/>
         <v>5.2636363636363637</v>
       </c>
       <c r="M18" s="9">
         <v>3</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="18">
         <v>4</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="19">
         <v>5.5</v>
       </c>
-      <c r="Q18" s="38"/>
+      <c r="Q18" s="20"/>
     </row>
     <row r="19" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5" t="s">
         <v>47</v>
@@ -1376,27 +1379,27 @@
       <c r="J19" s="9">
         <v>19.099999999999998</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="19">
         <f t="shared" ref="K19:K24" si="3">(D19*N19)/O19</f>
         <v>1</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="19">
         <f t="shared" si="1"/>
         <v>6.2636363636363637</v>
       </c>
       <c r="M19" s="9">
         <v>3</v>
       </c>
-      <c r="N19" s="19">
-        <v>1</v>
-      </c>
-      <c r="O19" s="20">
+      <c r="N19" s="18">
+        <v>1</v>
+      </c>
+      <c r="O19" s="19">
         <v>0.7</v>
       </c>
-      <c r="Q19" s="38"/>
+      <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="7"/>
@@ -1426,24 +1429,24 @@
       <c r="J20" s="9">
         <v>21.099999999999998</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="19">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="19">
         <f t="shared" si="1"/>
         <v>6.5969696969696967</v>
       </c>
       <c r="M20" s="9">
         <v>3</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="18">
         <v>2</v>
       </c>
-      <c r="O20" s="20">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="38"/>
+      <c r="O20" s="19">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="20"/>
     </row>
     <row r="21" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
@@ -1474,24 +1477,24 @@
       <c r="J21" s="9">
         <v>23.599999999999998</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="19">
         <f t="shared" si="3"/>
         <v>0.17391304347826089</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="19">
         <f t="shared" si="1"/>
         <v>6.7708827404479575</v>
       </c>
       <c r="M21" s="9">
         <v>3</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N21" s="18">
         <v>2</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q21" s="38"/>
+      <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
@@ -1522,21 +1525,21 @@
       <c r="J22" s="9">
         <v>25.599999999999998</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="19">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="19">
         <f t="shared" si="1"/>
         <v>7.1042160737812905</v>
       </c>
       <c r="M22" s="9">
         <v>3</v>
       </c>
-      <c r="N22" s="19">
+      <c r="N22" s="18">
         <v>2</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="19">
         <v>3</v>
       </c>
     </row>
@@ -1569,21 +1572,21 @@
       <c r="J23" s="9">
         <v>27.099999999999998</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="19">
         <f t="shared" si="3"/>
         <v>1.3636363636363638</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="19">
         <f t="shared" si="1"/>
         <v>8.4678524374176547</v>
       </c>
       <c r="M23" s="9">
         <v>3</v>
       </c>
-      <c r="N23" s="19">
-        <v>3</v>
-      </c>
-      <c r="O23" s="20">
+      <c r="N23" s="18">
+        <v>3</v>
+      </c>
+      <c r="O23" s="19">
         <v>2.1999999999999997</v>
       </c>
     </row>
@@ -1616,26 +1619,26 @@
       <c r="J24" s="9">
         <v>28.999999999999996</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="19">
         <f t="shared" si="3"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="19">
         <f t="shared" si="1"/>
         <v>8.6821381517033682</v>
       </c>
       <c r="M24" s="9">
         <v>3</v>
       </c>
-      <c r="N24" s="19">
-        <v>3</v>
-      </c>
-      <c r="O24" s="20">
+      <c r="N24" s="18">
+        <v>3</v>
+      </c>
+      <c r="O24" s="19">
         <v>2.8000000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5" t="s">
         <v>33</v>
@@ -1663,21 +1666,21 @@
       <c r="J25" s="9">
         <v>39</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="19">
         <f>(D25*N25)/O25</f>
         <v>2.4</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="19">
         <f t="shared" si="1"/>
         <v>11.082138151703369</v>
       </c>
       <c r="M25" s="9">
         <v>3</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N25" s="18">
         <v>12</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="19">
         <v>15</v>
       </c>
     </row>
@@ -1702,7 +1705,9 @@
       <c r="G26" s="9">
         <v>1</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6">
+        <v>4</v>
+      </c>
       <c r="I26" s="9">
         <f>ROUND(D26/D42*100,1)</f>
         <v>6.6</v>
@@ -1713,15 +1718,15 @@
       <c r="K26" s="6">
         <v>1</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="19">
         <f t="shared" si="1"/>
         <v>12.082138151703369</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="19">
         <v>4</v>
       </c>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20">
+      <c r="N26" s="18"/>
+      <c r="O26" s="19">
         <v>3</v>
       </c>
     </row>
@@ -1744,7 +1749,9 @@
       <c r="G27" s="9">
         <v>1</v>
       </c>
-      <c r="H27" s="6"/>
+      <c r="H27" s="6">
+        <v>4</v>
+      </c>
       <c r="I27" s="9">
         <f>ROUND(D27/D42*100,1)</f>
         <v>1.7</v>
@@ -1755,19 +1762,19 @@
       <c r="K27" s="6">
         <v>0.4</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="19">
         <f t="shared" si="1"/>
         <v>12.482138151703369</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="19">
         <v>4</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O27" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="7"/>
@@ -1787,7 +1794,9 @@
       <c r="G28" s="9">
         <v>3</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="6">
+        <v>4</v>
+      </c>
       <c r="I28" s="9">
         <f>ROUND(D28/D42*100,1)</f>
         <v>3.3</v>
@@ -1795,17 +1804,17 @@
       <c r="J28" s="9">
         <v>49.599999999999994</v>
       </c>
-      <c r="K28" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="L28" s="20">
+      <c r="K28" s="21">
+        <v>4</v>
+      </c>
+      <c r="L28" s="19">
         <f t="shared" si="1"/>
-        <v>14.982138151703369</v>
-      </c>
-      <c r="M28" s="6">
+        <v>16.482138151703367</v>
+      </c>
+      <c r="M28" s="19">
         <v>4</v>
       </c>
-      <c r="O28" s="20">
+      <c r="O28" s="19">
         <v>2</v>
       </c>
     </row>
@@ -1828,7 +1837,9 @@
       <c r="G29" s="9">
         <v>0.7</v>
       </c>
-      <c r="H29" s="6"/>
+      <c r="H29" s="6">
+        <v>4</v>
+      </c>
       <c r="I29" s="9">
         <f>ROUND(D29/D42*100,1)</f>
         <v>3.3</v>
@@ -1839,14 +1850,14 @@
       <c r="K29" s="6">
         <v>1.2</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="19">
         <f t="shared" si="1"/>
-        <v>16.18213815170337</v>
-      </c>
-      <c r="M29" s="6">
+        <v>17.682138151703366</v>
+      </c>
+      <c r="M29" s="19">
         <v>5</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O29" s="19">
         <v>3</v>
       </c>
     </row>
@@ -1869,7 +1880,9 @@
       <c r="G30" s="9">
         <v>0.7</v>
       </c>
-      <c r="H30" s="6"/>
+      <c r="H30" s="6">
+        <v>4</v>
+      </c>
       <c r="I30" s="9">
         <f>ROUND(D30/D42*100,1)</f>
         <v>1.7</v>
@@ -1880,19 +1893,19 @@
       <c r="K30" s="6">
         <v>0.5</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="19">
         <f>K30+L29</f>
-        <v>16.68213815170337</v>
-      </c>
-      <c r="M30" s="6">
+        <v>18.182138151703366</v>
+      </c>
+      <c r="M30" s="19">
         <v>4</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="7"/>
       <c r="C31" s="5" t="s">
         <v>63</v>
@@ -1900,38 +1913,42 @@
       <c r="D31" s="10">
         <v>0</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <f>D31+E30</f>
         <v>16.100000000000001</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="20">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="20">
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6">
+        <v>4</v>
+      </c>
+      <c r="I31" s="19">
         <f>ROUND(D31/D42*100,1)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="19">
         <v>56.599999999999994</v>
       </c>
       <c r="K31" s="6">
         <v>1</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="19">
         <f>K31+L30</f>
-        <v>17.68213815170337</v>
-      </c>
-      <c r="M31" s="6">
+        <v>19.182138151703366</v>
+      </c>
+      <c r="M31" s="19">
         <v>4</v>
       </c>
-      <c r="O31" s="20"/>
+      <c r="O31" s="19"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
+      <c r="A32" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="B32" s="7"/>
       <c r="C32" s="5" t="s">
         <v>53</v>
@@ -1946,8 +1963,12 @@
       <c r="F32" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="6"/>
+      <c r="G32" s="9">
+        <v>2</v>
+      </c>
+      <c r="H32" s="6">
+        <v>5</v>
+      </c>
       <c r="I32" s="9">
         <f>ROUND(D32/D42*100,1)</f>
         <v>3.3</v>
@@ -1955,10 +1976,17 @@
       <c r="J32" s="9">
         <v>63.499999999999986</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="O32" s="20">
+      <c r="K32" s="6">
+        <v>4</v>
+      </c>
+      <c r="L32" s="19">
+        <f t="shared" ref="L32:L41" si="4">K32+L31</f>
+        <v>23.182138151703366</v>
+      </c>
+      <c r="M32" s="19">
+        <v>5</v>
+      </c>
+      <c r="O32" s="19">
         <v>2</v>
       </c>
     </row>
@@ -1981,7 +2009,9 @@
       <c r="G33" s="9">
         <v>646</v>
       </c>
-      <c r="H33" s="6"/>
+      <c r="H33" s="6">
+        <v>5</v>
+      </c>
       <c r="I33" s="9">
         <f>ROUND(D33/D42*100,1)</f>
         <v>16.600000000000001</v>
@@ -1989,10 +2019,17 @@
       <c r="J33" s="9">
         <v>81.099999999999994</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="O33" s="20">
+      <c r="K33" s="6">
+        <v>2</v>
+      </c>
+      <c r="L33" s="19">
+        <f t="shared" si="4"/>
+        <v>25.182138151703366</v>
+      </c>
+      <c r="M33" s="19">
+        <v>5</v>
+      </c>
+      <c r="O33" s="19">
         <v>25</v>
       </c>
     </row>
@@ -2011,7 +2048,9 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="6"/>
+      <c r="H34" s="6">
+        <v>5</v>
+      </c>
       <c r="I34" s="9">
         <f>ROUND(D34/D42*100,1)</f>
         <v>3.3</v>
@@ -2019,10 +2058,17 @@
       <c r="J34" s="9">
         <v>82.399999999999991</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="O34" s="20">
+      <c r="K34" s="6">
+        <v>2</v>
+      </c>
+      <c r="L34" s="19">
+        <f t="shared" si="4"/>
+        <v>27.182138151703366</v>
+      </c>
+      <c r="M34" s="19">
+        <v>6</v>
+      </c>
+      <c r="O34" s="19">
         <v>2</v>
       </c>
     </row>
@@ -2045,7 +2091,9 @@
       <c r="G35" s="9">
         <v>0.7</v>
       </c>
-      <c r="H35" s="6"/>
+      <c r="H35" s="6">
+        <v>5</v>
+      </c>
       <c r="I35" s="9">
         <f>ROUND(D35/D42*100,1)</f>
         <v>1.7</v>
@@ -2053,15 +2101,22 @@
       <c r="J35" s="9">
         <v>83.1</v>
       </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="O35" s="20">
+      <c r="K35" s="6">
+        <v>3</v>
+      </c>
+      <c r="L35" s="19">
+        <f t="shared" si="4"/>
+        <v>30.182138151703366</v>
+      </c>
+      <c r="M35" s="19">
+        <v>6</v>
+      </c>
+      <c r="O35" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5" t="s">
         <v>64</v>
@@ -2069,31 +2124,40 @@
       <c r="D36" s="10">
         <v>0</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="19">
         <f t="shared" si="0"/>
         <v>23.6</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="20">
-        <v>1</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="20">
+      <c r="G36" s="19">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6">
+        <v>5</v>
+      </c>
+      <c r="I36" s="19">
         <f>ROUND(D36/D42*100,1)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="19">
         <v>83.1</v>
       </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="O36" s="20"/>
+      <c r="K36" s="6">
+        <v>1</v>
+      </c>
+      <c r="L36" s="19">
+        <f t="shared" si="4"/>
+        <v>31.182138151703366</v>
+      </c>
+      <c r="M36" s="19">
+        <v>5</v>
+      </c>
+      <c r="O36" s="19"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="7"/>
@@ -2113,7 +2177,9 @@
       <c r="G37" s="9">
         <v>6</v>
       </c>
-      <c r="H37" s="6"/>
+      <c r="H37" s="6">
+        <v>6</v>
+      </c>
       <c r="I37" s="9">
         <f>ROUND(D37/D42*100,1)</f>
         <v>3.3</v>
@@ -2121,10 +2187,17 @@
       <c r="J37" s="9">
         <v>86.399999999999991</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="O37" s="20">
+      <c r="K37" s="6">
+        <v>2</v>
+      </c>
+      <c r="L37" s="19">
+        <f t="shared" si="4"/>
+        <v>33.18213815170337</v>
+      </c>
+      <c r="M37" s="19">
+        <v>6</v>
+      </c>
+      <c r="O37" s="19">
         <v>5</v>
       </c>
     </row>
@@ -2141,9 +2214,15 @@
         <f t="shared" si="0"/>
         <v>25.6</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="6"/>
+      <c r="F38" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="9">
+        <v>2</v>
+      </c>
+      <c r="H38" s="6">
+        <v>6</v>
+      </c>
       <c r="I38" s="9">
         <f>ROUND(D38/D42*100,1)</f>
         <v>3.3</v>
@@ -2151,15 +2230,22 @@
       <c r="J38" s="9">
         <v>88.399999999999991</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="O38" s="20">
+      <c r="K38" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L38" s="19">
+        <f t="shared" si="4"/>
+        <v>34.68213815170337</v>
+      </c>
+      <c r="M38" s="19">
+        <v>6</v>
+      </c>
+      <c r="O38" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="7"/>
       <c r="C39" s="5" t="s">
         <v>57</v>
@@ -2177,7 +2263,9 @@
       <c r="G39" s="9">
         <v>10</v>
       </c>
-      <c r="H39" s="6"/>
+      <c r="H39" s="6">
+        <v>6</v>
+      </c>
       <c r="I39" s="9">
         <f>ROUND(D39/D42*100,1)</f>
         <v>6.6</v>
@@ -2185,15 +2273,22 @@
       <c r="J39" s="9">
         <v>91.699999999999989</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="O39" s="20">
+      <c r="K39" s="6">
+        <v>2</v>
+      </c>
+      <c r="L39" s="19">
+        <f t="shared" si="4"/>
+        <v>36.68213815170337</v>
+      </c>
+      <c r="M39" s="19">
+        <v>6</v>
+      </c>
+      <c r="O39" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="7"/>
@@ -2213,7 +2308,9 @@
       <c r="G40" s="9">
         <v>5</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="6">
+        <v>6</v>
+      </c>
       <c r="I40" s="9">
         <f>ROUND(D40/D42*100,1)</f>
         <v>3.3</v>
@@ -2221,15 +2318,22 @@
       <c r="J40" s="9">
         <v>94.999999999999986</v>
       </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="O40" s="20">
+      <c r="K40" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L40" s="19">
+        <f t="shared" si="4"/>
+        <v>37.18213815170337</v>
+      </c>
+      <c r="M40" s="19">
+        <v>6</v>
+      </c>
+      <c r="O40" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12" t="s">
         <v>38</v>
@@ -2247,7 +2351,9 @@
       <c r="G41" s="13">
         <v>5</v>
       </c>
-      <c r="H41" s="14"/>
+      <c r="H41" s="6">
+        <v>6</v>
+      </c>
       <c r="I41" s="9">
         <f>ROUND(D41/D42*100,1)</f>
         <v>5</v>
@@ -2255,52 +2361,46 @@
       <c r="J41" s="9">
         <v>99.999999999999986</v>
       </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="O41" s="20">
+      <c r="K41" s="6">
+        <v>3</v>
+      </c>
+      <c r="L41" s="19">
+        <f t="shared" si="4"/>
+        <v>40.18213815170337</v>
+      </c>
+      <c r="M41" s="13">
+        <v>6</v>
+      </c>
+      <c r="O41" s="19">
         <v>7.5</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="17">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="16">
         <f>SUM(D14:D41)</f>
         <v>30.1</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="18"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="17"/>
       <c r="I42" s="9">
         <f>SUM(I14:I41)</f>
         <v>99.999999999999986</v>
       </c>
-      <c r="J42" s="18"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="6">
+        <f>SUM(K14:K41)</f>
+        <v>40.18213815170337</v>
+      </c>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E8:E13"/>
@@ -2317,6 +2417,22 @@
     <mergeCell ref="I8:I13"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A28:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/NoteBook/task and schedule plans and actual/TASK_claudia.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_claudia.xlsx
@@ -522,15 +522,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -540,12 +561,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -557,21 +572,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H34" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,12 +901,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -915,192 +915,192 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="29">
         <v>41719</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="34">
-        <v>1</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="25" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="25" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="25" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
       <c r="N13" s="1" t="s">
         <v>59</v>
       </c>
@@ -1109,7 +1109,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="30" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="4"/>
@@ -1158,7 +1158,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="7"/>
       <c r="C15" s="5" t="s">
         <v>25</v>
@@ -1205,7 +1205,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
         <v>26</v>
@@ -1253,7 +1253,7 @@
       <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="30" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="7"/>
@@ -1303,7 +1303,7 @@
       <c r="Q17" s="20"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5" t="s">
         <v>28</v>
@@ -1332,12 +1332,11 @@
         <v>18.599999999999998</v>
       </c>
       <c r="K18" s="19">
-        <f>(D18*N18)/O18</f>
-        <v>0.36363636363636365</v>
+        <v>0.4</v>
       </c>
       <c r="L18" s="19">
         <f t="shared" si="1"/>
-        <v>5.2636363636363637</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="M18" s="9">
         <v>3</v>
@@ -1351,7 +1350,7 @@
       <c r="Q18" s="20"/>
     </row>
     <row r="19" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5" t="s">
         <v>47</v>
@@ -1385,7 +1384,7 @@
       </c>
       <c r="L19" s="19">
         <f t="shared" si="1"/>
-        <v>6.2636363636363637</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="M19" s="9">
         <v>3</v>
@@ -1399,7 +1398,7 @@
       <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="7"/>
@@ -1430,12 +1429,11 @@
         <v>21.099999999999998</v>
       </c>
       <c r="K20" s="19">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="L20" s="19">
         <f t="shared" si="1"/>
-        <v>6.5969696969696967</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="M20" s="9">
         <v>3</v>
@@ -1449,7 +1447,7 @@
       <c r="Q20" s="20"/>
     </row>
     <row r="21" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="7"/>
       <c r="C21" s="5" t="s">
         <v>30</v>
@@ -1478,12 +1476,11 @@
         <v>23.599999999999998</v>
       </c>
       <c r="K21" s="19">
-        <f t="shared" si="3"/>
-        <v>0.17391304347826089</v>
+        <v>0.2</v>
       </c>
       <c r="L21" s="19">
         <f t="shared" si="1"/>
-        <v>6.7708827404479575</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="M21" s="9">
         <v>3</v>
@@ -1497,7 +1494,7 @@
       <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="7"/>
       <c r="C22" s="5" t="s">
         <v>48</v>
@@ -1526,12 +1523,11 @@
         <v>25.599999999999998</v>
       </c>
       <c r="K22" s="19">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="L22" s="19">
         <f t="shared" si="1"/>
-        <v>7.1042160737812905</v>
+        <v>7.1000000000000005</v>
       </c>
       <c r="M22" s="9">
         <v>3</v>
@@ -1544,7 +1540,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5" t="s">
         <v>31</v>
@@ -1573,12 +1569,11 @@
         <v>27.099999999999998</v>
       </c>
       <c r="K23" s="19">
-        <f t="shared" si="3"/>
-        <v>1.3636363636363638</v>
+        <v>1.4</v>
       </c>
       <c r="L23" s="19">
         <f t="shared" si="1"/>
-        <v>8.4678524374176547</v>
+        <v>8.5</v>
       </c>
       <c r="M23" s="9">
         <v>3</v>
@@ -1591,7 +1586,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5" t="s">
         <v>32</v>
@@ -1620,12 +1615,11 @@
         <v>28.999999999999996</v>
       </c>
       <c r="K24" s="19">
-        <f t="shared" si="3"/>
-        <v>0.21428571428571427</v>
+        <v>0.2</v>
       </c>
       <c r="L24" s="19">
         <f t="shared" si="1"/>
-        <v>8.6821381517033682</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M24" s="9">
         <v>3</v>
@@ -1638,7 +1632,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5" t="s">
         <v>33</v>
@@ -1672,7 +1666,7 @@
       </c>
       <c r="L25" s="19">
         <f t="shared" si="1"/>
-        <v>11.082138151703369</v>
+        <v>11.1</v>
       </c>
       <c r="M25" s="9">
         <v>3</v>
@@ -1685,7 +1679,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="7"/>
@@ -1720,7 +1714,7 @@
       </c>
       <c r="L26" s="19">
         <f t="shared" si="1"/>
-        <v>12.082138151703369</v>
+        <v>12.1</v>
       </c>
       <c r="M26" s="19">
         <v>4</v>
@@ -1731,7 +1725,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="7"/>
       <c r="C27" s="5" t="s">
         <v>50</v>
@@ -1764,7 +1758,7 @@
       </c>
       <c r="L27" s="19">
         <f t="shared" si="1"/>
-        <v>12.482138151703369</v>
+        <v>12.5</v>
       </c>
       <c r="M27" s="19">
         <v>4</v>
@@ -1774,7 +1768,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="30" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="7"/>
@@ -1809,7 +1803,7 @@
       </c>
       <c r="L28" s="19">
         <f t="shared" si="1"/>
-        <v>16.482138151703367</v>
+        <v>16.5</v>
       </c>
       <c r="M28" s="19">
         <v>4</v>
@@ -1819,7 +1813,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="7"/>
       <c r="C29" s="5" t="s">
         <v>52</v>
@@ -1852,7 +1846,7 @@
       </c>
       <c r="L29" s="19">
         <f t="shared" si="1"/>
-        <v>17.682138151703366</v>
+        <v>17.7</v>
       </c>
       <c r="M29" s="19">
         <v>5</v>
@@ -1862,7 +1856,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="7"/>
       <c r="C30" s="5" t="s">
         <v>34</v>
@@ -1895,7 +1889,7 @@
       </c>
       <c r="L30" s="19">
         <f>K30+L29</f>
-        <v>18.182138151703366</v>
+        <v>18.2</v>
       </c>
       <c r="M30" s="19">
         <v>4</v>
@@ -1905,7 +1899,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="7"/>
       <c r="C31" s="5" t="s">
         <v>63</v>
@@ -1938,7 +1932,7 @@
       </c>
       <c r="L31" s="19">
         <f>K31+L30</f>
-        <v>19.182138151703366</v>
+        <v>19.2</v>
       </c>
       <c r="M31" s="19">
         <v>4</v>
@@ -1946,7 +1940,7 @@
       <c r="O31" s="19"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="7"/>
@@ -1981,7 +1975,7 @@
       </c>
       <c r="L32" s="19">
         <f t="shared" ref="L32:L41" si="4">K32+L31</f>
-        <v>23.182138151703366</v>
+        <v>23.2</v>
       </c>
       <c r="M32" s="19">
         <v>5</v>
@@ -1991,7 +1985,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="7"/>
       <c r="C33" s="5" t="s">
         <v>35</v>
@@ -2024,7 +2018,7 @@
       </c>
       <c r="L33" s="19">
         <f t="shared" si="4"/>
-        <v>25.182138151703366</v>
+        <v>25.2</v>
       </c>
       <c r="M33" s="19">
         <v>5</v>
@@ -2034,7 +2028,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="7"/>
       <c r="C34" s="5" t="s">
         <v>54</v>
@@ -2063,7 +2057,7 @@
       </c>
       <c r="L34" s="19">
         <f t="shared" si="4"/>
-        <v>27.182138151703366</v>
+        <v>27.2</v>
       </c>
       <c r="M34" s="19">
         <v>6</v>
@@ -2073,7 +2067,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="7"/>
       <c r="C35" s="5" t="s">
         <v>55</v>
@@ -2106,7 +2100,7 @@
       </c>
       <c r="L35" s="19">
         <f t="shared" si="4"/>
-        <v>30.182138151703366</v>
+        <v>30.2</v>
       </c>
       <c r="M35" s="19">
         <v>6</v>
@@ -2116,7 +2110,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5" t="s">
         <v>64</v>
@@ -2149,7 +2143,7 @@
       </c>
       <c r="L36" s="19">
         <f t="shared" si="4"/>
-        <v>31.182138151703366</v>
+        <v>31.2</v>
       </c>
       <c r="M36" s="19">
         <v>5</v>
@@ -2157,7 +2151,7 @@
       <c r="O36" s="19"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="7"/>
@@ -2192,7 +2186,7 @@
       </c>
       <c r="L37" s="19">
         <f t="shared" si="4"/>
-        <v>33.18213815170337</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="M37" s="19">
         <v>6</v>
@@ -2202,7 +2196,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="7"/>
       <c r="C38" s="5" t="s">
         <v>56</v>
@@ -2235,7 +2229,7 @@
       </c>
       <c r="L38" s="19">
         <f t="shared" si="4"/>
-        <v>34.68213815170337</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="M38" s="19">
         <v>6</v>
@@ -2245,7 +2239,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="7"/>
       <c r="C39" s="5" t="s">
         <v>57</v>
@@ -2278,7 +2272,7 @@
       </c>
       <c r="L39" s="19">
         <f t="shared" si="4"/>
-        <v>36.68213815170337</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="M39" s="19">
         <v>6</v>
@@ -2288,7 +2282,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="30" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="7"/>
@@ -2323,7 +2317,7 @@
       </c>
       <c r="L40" s="19">
         <f t="shared" si="4"/>
-        <v>37.18213815170337</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="M40" s="19">
         <v>6</v>
@@ -2333,7 +2327,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12" t="s">
         <v>38</v>
@@ -2366,7 +2360,7 @@
       </c>
       <c r="L41" s="19">
         <f t="shared" si="4"/>
-        <v>40.18213815170337</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="M41" s="13">
         <v>6</v>
@@ -2394,13 +2388,29 @@
       <c r="J42" s="17"/>
       <c r="K42" s="6">
         <f>SUM(K14:K41)</f>
-        <v>40.18213815170337</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E8:E13"/>
@@ -2417,22 +2427,6 @@
     <mergeCell ref="I8:I13"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A28:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
